--- a/results_final/ti_LH.xlsx
+++ b/results_final/ti_LH.xlsx
@@ -486,91 +486,91 @@
         <v>0.98</v>
       </c>
       <c r="D2">
-        <v>1.556589243881718</v>
+        <v>1.556726865544064</v>
       </c>
       <c r="E2">
-        <v>2.19968692465632</v>
+        <v>2.200360373007585</v>
       </c>
       <c r="F2">
-        <v>2.840434798419529</v>
+        <v>2.842289131771047</v>
       </c>
       <c r="G2">
-        <v>3.441887859108816</v>
+        <v>3.445728207270303</v>
       </c>
       <c r="H2">
-        <v>3.984883849066377</v>
+        <v>3.991566014111623</v>
       </c>
       <c r="I2">
-        <v>4.461433475187492</v>
+        <v>4.471761563912005</v>
       </c>
       <c r="J2">
-        <v>4.870036138770911</v>
+        <v>4.884673583290253</v>
       </c>
       <c r="K2">
-        <v>5.212294252173153</v>
+        <v>5.231691300239384</v>
       </c>
       <c r="L2">
-        <v>5.490793131256773</v>
+        <v>5.515143212015332</v>
       </c>
       <c r="M2">
-        <v>5.70024432690228</v>
+        <v>5.729462849754614</v>
       </c>
       <c r="N2">
-        <v>5.844016879701876</v>
+        <v>5.877708722108288</v>
       </c>
       <c r="O2">
-        <v>5.923075055208905</v>
+        <v>5.960482037637803</v>
       </c>
       <c r="P2">
-        <v>5.935636579432028</v>
+        <v>5.975564345232804</v>
       </c>
       <c r="Q2">
-        <v>5.893824669840872</v>
+        <v>5.935066795923256</v>
       </c>
       <c r="R2">
-        <v>5.821436608723422</v>
+        <v>5.863205667689932</v>
       </c>
       <c r="S2">
-        <v>5.734087147220951</v>
+        <v>5.775882371081892</v>
       </c>
       <c r="T2">
-        <v>5.641818673026473</v>
+        <v>5.683334764219688</v>
       </c>
       <c r="U2">
-        <v>5.550890925046266</v>
+        <v>5.591954952697852</v>
       </c>
       <c r="V2">
-        <v>5.465011387733362</v>
+        <v>5.505538978276228</v>
       </c>
       <c r="W2">
-        <v>5.386182658765505</v>
+        <v>5.426147539579697</v>
       </c>
       <c r="X2">
-        <v>5.315286214681044</v>
+        <v>5.35469906811995</v>
       </c>
       <c r="Y2">
-        <v>5.252483876698469</v>
+        <v>5.291377729038081</v>
       </c>
       <c r="Z2">
-        <v>5.197492670789478</v>
+        <v>5.235912890703711</v>
       </c>
       <c r="AA2">
-        <v>5.149771499973809</v>
+        <v>5.187769056446954</v>
       </c>
       <c r="AB2">
-        <v>5.108646316385573</v>
+        <v>5.146273340010618</v>
       </c>
       <c r="AC2">
-        <v>5.073392450648137</v>
+        <v>5.110699415919458</v>
       </c>
       <c r="AD2">
-        <v>5.043287208938894</v>
+        <v>5.080321247937529</v>
       </c>
       <c r="AE2">
-        <v>5.017641980793276</v>
+        <v>5.054445976265581</v>
       </c>
       <c r="AF2">
-        <v>4.999637069271775</v>
+        <v>5.036283868053141</v>
       </c>
     </row>
   </sheetData>
